--- a/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>144</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
@@ -544,20 +544,28 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.003749</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>1.141717</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.00839</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H7" s="9" t="n">
-        <v>30353.90770872232</v>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I7" s="9" t="n">
         <v>-99.26514188717519</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AZERBAIJAN_201907_HKD_MN.xlsx
@@ -818,136 +818,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>82.080437</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>52.646570305227</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>94.97179300000001</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>59.63903685018791</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>208.382985</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>49.27115357740207</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>166.284891</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>74.40637646933281</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>112.0663058831302</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>10.077717</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.463869540030364</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>9.568172000000001</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.008484671832363</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>23.942202</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.661018397078739</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>11.075524</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.955889879009698</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>8.896036194838297</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3.737135</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.397006493978882</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>3.445715</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.1637911359665</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>9.444756</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.233167085964766</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>10.126824</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.531381501056971</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>179.9814098181264</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>23.97554182626076</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>6.611215</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.958275699321955</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-15.24083333333334</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.314269</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.125779324480623</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.305281</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.8196718120173863</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.084273</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.2563711307947262</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.02036</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.351500078458205</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>631.1644706104496</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4.071943</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.611753071299766</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.168153</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.989491695855772</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.039169</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.7185968784672101</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.750369</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.230689030211304</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>9.539315554766103</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.510764</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.610409474864674</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.674227</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.423391489496167</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.583351</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.6108209068285264</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.604975</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.165630559562987</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>42.34843844176963</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>6.468186</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.148708528394957</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17.645649</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>11.08086388298978</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>45.547245</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>10.76942680047778</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.361657</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.056754698377468</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-89.16435997351719</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.795721</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5103771751342592</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.6099250000000001</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3830120333818575</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.582513</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3741775800996193</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.225732</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9959332571703166</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>714.1085242963477</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.290648</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.110628763852154</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.347223</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.47397574132994</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>2.983306</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7053883410605</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.956063</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.8752662920874306</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>21.26276596667984</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>39.561602</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>25.37489732273731</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>25.508206</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.01828068694233</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>22.941205</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>5.424337475565311</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>14.464434</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.472302535410853</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>18.21022793441916</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1284,619 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1.860969049247756</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.12047</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>98.13903095075224</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, SALTED, IN BRINE, DRIED OR SMOKED; EDIBLE FLOURS AND MEALS OF MEAT OR MEAT OFFAL</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1928,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>82.080437</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>52.64783628390665</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>94.97179300000001</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>60.06971218764126</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>208.382985</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>49.27213102567239</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>166.284891</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>74.40637646933281</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>112.0663058831302</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>10.077717</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.464024975056393</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>9.568172000000001</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.051874141218413</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>23.942202</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.661130701180404</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>11.075524</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.955889879009698</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>8.896036194838297</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3.737135</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.397064134184098</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3.445715</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.1794166645947</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>9.444756</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.233211387856381</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>10.126824</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.531381501056971</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>179.9814098181264</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>23.97601745652689</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>6.611215</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.958275699321955</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-15.24083333333334</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.314269</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.125830442555112</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.305281</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.8255909625081689</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.084273</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.2563762167222956</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.02036</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.351500078458205</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>631.1644706104496</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.071943</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.611815875461283</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.168153</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.003858544361821</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.039169</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.7186111340960095</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.750369</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.230689030211304</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>9.539315554766103</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.510764</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.61044819997153</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.674227</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4264489545768269</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.583351</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.6108330243820137</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2.604975</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.165630559562987</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>42.34843844176963</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>6.468186</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.148808291333256</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>17.645649</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>11.16088286123165</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>45.547245</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>10.76964044592413</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.361657</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.056754698377468</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-89.16435997351719</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.795721</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5103894480443187</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.6099250000000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3857779036144668</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.582513</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3741850030885674</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.225732</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.9959332571703166</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>714.1085242963477</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.290648</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.110679517604966</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.347223</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.484619860237996</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>2.983306</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7054023346564241</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.956063</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.8752662920874306</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>21.26276596667984</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>39.557853</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>25.37310283188241</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>24.366489</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.4118179200147</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>22.932815</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>5.422461269894494</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>14.464434</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.472302535410853</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>18.29133683437052</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2394,535 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.1140344403015451</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>0.2461336612006426</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>9.783611000000001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>54.63017519204521</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>4.79619</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>26.78118538792428</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.743902227055719</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.090048246071118</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.222594</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.83797565168097</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.790028</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.995240329840005</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>223.4571425990007</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.53484263940797</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.36271</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>10.52704438653553</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.158023014472977</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.376701350354037</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.141572379707768</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>593.8203263504469</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.54225</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>11.91400533138702</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.3572</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>14.33032799789416</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.230642397196771</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.232131414247428</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3785289422843017</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1.516934</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>19.65097469577556</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.5847682514142206</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-67.91955765902374</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.8931429018600371</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.9042931115912525</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.641068204544327</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.5679999624765562</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-53.52231086255266</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TOOLS FOR USE IN THE HAND OR IN MACHINES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1545016090956333</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.183864047165428</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.3390120300607455</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.316207603813186</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>9.500078999999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>73.38887460178177</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>7.330727</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>77.40327318966894</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>4.00116</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>51.83263999208226</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.8768648090626264</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-93.72567508445422</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
